--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.514</v>
+        <v>-12.342</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.828</v>
+        <v>5.828000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.47</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.72</v>
+        <v>17.845</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.968</v>
+        <v>5.857</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.464</v>
+        <v>9.873000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.066000000000001</v>
+        <v>7.728999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>17.032</v>
+        <v>16.585</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.148000000000001</v>
+        <v>5.103</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.812</v>
+        <v>-11.52</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>16.964</v>
+        <v>17.288</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.917999999999999</v>
+        <v>6.181999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.462</v>
+        <v>-13.466</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.843999999999999</v>
+        <v>5.656000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.272</v>
+        <v>-13.163</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.514</v>
+        <v>-12.858</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.196</v>
+        <v>-11.332</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.644</v>
+        <v>16.331</v>
       </c>
     </row>
     <row r="51">
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.462</v>
+        <v>-11.266</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.644</v>
+        <v>-11.303</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.2</v>
+        <v>6.909999999999999</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>17.838</v>
+        <v>17.343</v>
       </c>
     </row>
     <row r="54">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48</v>
+        <v>-13.106</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.386</v>
+        <v>-13.537</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1400,16 +1400,16 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.712</v>
+        <v>4.864</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.85</v>
+        <v>-13.852</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.448</v>
+        <v>16.423</v>
       </c>
     </row>
     <row r="58">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.836</v>
+        <v>4.741</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.49</v>
+        <v>16.796</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.72</v>
+        <v>17.562</v>
       </c>
     </row>
     <row r="64">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.407999999999999</v>
+        <v>5.354000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.846</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="71">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.372</v>
+        <v>-12.752</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.116</v>
+        <v>5.6</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.481999999999999</v>
+        <v>5.702</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.62</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="87">
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.386</v>
+        <v>-11.627</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.818</v>
+        <v>-12.91</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>4.766</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.32</v>
+        <v>-10.878</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.82</v>
+        <v>5.673</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.744</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.952</v>
+        <v>16.879</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.434</v>
+        <v>16.318</v>
       </c>
     </row>
   </sheetData>
